--- a/medicine/Mort/Cimetière_nouveau_d'Aulnay-sous-Bois/Cimetière_nouveau_d'Aulnay-sous-Bois.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_d'Aulnay-sous-Bois/Cimetière_nouveau_d'Aulnay-sous-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Aulnay-sous-Bois</t>
+          <t>Cimetière_nouveau_d'Aulnay-sous-Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau d'Aulnay-sous-Bois, est un cimetière se trouvant route de Mitry à Aulnay-sous-Bois en Seine-Saint-Denis[1]. Il succède au cimetière ancien d'Aulnay-sous-Bois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau d'Aulnay-sous-Bois, est un cimetière se trouvant route de Mitry à Aulnay-sous-Bois en Seine-Saint-Denis. Il succède au cimetière ancien d'Aulnay-sous-Bois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Aulnay-sous-Bois</t>
+          <t>Cimetière_nouveau_d'Aulnay-sous-Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les célébrations communales de la victoire du 8 mai 1945[2], ainsi que la Journée nationale d'hommage aux "Morts pour la France" pendant la guerre d'Algérie et des Combats du Maroc et de la Tunisie[3] se déroulent dans ce cimetière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les célébrations communales de la victoire du 8 mai 1945, ainsi que la Journée nationale d'hommage aux "Morts pour la France" pendant la guerre d'Algérie et des Combats du Maroc et de la Tunisie se déroulent dans ce cimetière.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Aulnay-sous-Bois</t>
+          <t>Cimetière_nouveau_d'Aulnay-sous-Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau cimetière dispose d'un carré militaire.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Aulnay-sous-Bois</t>
+          <t>Cimetière_nouveau_d'Aulnay-sous-Bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le baryton Michel Dens[4].
-Claudia Vivaldi, historienne et éditrice[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le baryton Michel Dens.
+Claudia Vivaldi, historienne et éditrice.</t>
         </is>
       </c>
     </row>
